--- a/datasetTV.xlsx
+++ b/datasetTV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\flaskSkripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E9BBC-E004-4351-AE5D-1A7822B86F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24801CF0-4FA5-4EE6-B299-311D9BFB3CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="365">
   <si>
     <t>Id</t>
   </si>
@@ -211,6 +211,96 @@
     <t>Orang bangkrut itu bukan perkara soal uang tetapi bangkrut itu orang yang sudah tidak punya mimpi -BangQomar #HitamPutihT7</t>
   </si>
   <si>
+    <t>Menakutkan Powernya Oma Martha #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>#hitamputihT7 jika hasilnya tdk sesuai dgn apa yg dikehendaki para pendemo akan demo lg, silakah jika ini diartikan sbg pemaksaan kehendak</t>
+  </si>
+  <si>
+    <t>mulut farhat abas anjay bener di #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>Klo episode berikutnya muncul lagi di @HitamPutihT7 saya ga bakal nonton lg hitam putih.. #hitamputiht7</t>
+  </si>
+  <si>
+    <t>Yaampun banyak anak kecil yang nonton #hitamputihT7</t>
+  </si>
+  <si>
+    <t>Seorang anak yg butuh pengakuan dari sang ayah #hitamPutihT7 @marioteguh</t>
+  </si>
+  <si>
+    <t>Mario Teguh mencampakkan anak nya ? #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>Orang tuna netra aja bisa berbagi, kok yg pegang jabatan tinggi korupsi #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>@pandji garing banget sih ni orang #hitamputiht7</t>
+  </si>
+  <si>
+    <t>kalo sekarang yang nyanyi anak2,, tapi lagu Na ... Terlalu Menyakitkan Memalukan untuk disebutkan #savelaguanak #HitamputihT7</t>
+  </si>
+  <si>
+    <t>bukan maksud ngatain tp cuma bertanya knp hanya orang kecil atau bawah yg ditindes? @HitamPutihT7 #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>Bos kau kalo cowo kerja salah di bentak abis, kalo cewe malah diajakin becanda trus ketawa #MyStupidBoss #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>suara sang veteran kalau perlu koruptor di hukum mati! #hitamPutihT7</t>
+  </si>
+  <si>
+    <t>Kok berita nya ga nyebar sih #HitamPutihT7 #Trans7</t>
+  </si>
+  <si>
+    <t>@HitamPutihT7 buta tuh orang, dalem ruangan pake kacamata hitam #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>Ya dunia jadi terharu kepergian mbak jupe @hitamputih_trans7</t>
+  </si>
+  <si>
+    <t>jadi gitu nasib atlet kita ya? @KEMENPORA_RI #HitamputihT7</t>
+  </si>
+  <si>
+    <t>knp ya seorang sahabat bs lupa dg sahabatnya bila sudah bertemu teman lama / barunya? #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>Baby tatan nangis ngeliat daddy, @HitamPutihT7 #hitamputiht7</t>
+  </si>
+  <si>
+    <t>angkat topi dan tundukkan kepala buat mbah simpen #hitamputihtrans7</t>
+  </si>
+  <si>
+    <t>toleransi umat beragama macam apa yg diterapkan di Serang Banten? Toleransi hanya mitos #hitamPutihT7</t>
+  </si>
+  <si>
+    <t>suara sang veteran : kalau perlu koruptor di hukum mati! #hitamPutihT7</t>
+  </si>
+  <si>
+    <t>Turut berduka buat anak nya buk pak #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>ingin kan hal yg baik tetapi belum tentu semua itu sesuatu yg diharapkan? #moreppie #hitamputihT7</t>
+  </si>
+  <si>
+    <t>ga tau kenapa semua menjadi buruk ketika kau pergi #moreppie #hitamputihT7</t>
+  </si>
+  <si>
+    <t>#HitamPutihT7 udah sodok ajah bu haha #TributeToWanitaIndonesia</t>
+  </si>
+  <si>
+    <t>butuh ketegasan dari pihak masyarakat dan pemerintah kita butuh tindakan bukan hanya ngoceh di medsos #HitamPutihT7 #PollingHitamPutih</t>
+  </si>
+  <si>
+    <t>hidup itu harus dijalanin bukan dipikirin #hitamputiht7</t>
+  </si>
+  <si>
+    <t>Pemimpin itu adalah pribadi yang dikorbankan #HitamPutihT7</t>
+  </si>
+  <si>
+    <t>Hidup ini dijalanin, bukan dipikirin. Mongol Stres #hitamputiht7</t>
+  </si>
+  <si>
     <t>Suka banget nonton #IndonesiaLawyersClub bisa menambah wawasan, bisa belajar cara membicarakan suatu masalah, keren @ILC_tvOnenews</t>
   </si>
   <si>
@@ -391,6 +481,96 @@
     <t>Sebuah pertanyaan kepada metromini utk dijadikan metronome yang dibentuk oleh kemacetan yang cukup padat di berikan oleh putra petir. #ilc</t>
   </si>
   <si>
+    <t>buat para pembela AHOK, Cek cara berpikirnya, masa kalah sama ANAK SD. #AhokHarusDipenjara @ILC_tvOnenews #ILC</t>
+  </si>
+  <si>
+    <t>@MataNajwa kok kayak provokatif ya pembawa acaranya. Beda kelas dg #ILC @ILC_tvOnenews</t>
+  </si>
+  <si>
+    <t>Saya pribadi tdk suka dgn acara Mata Najwa dan ILC, tdk menyelesaikan masalah kayaknya. #matanajwa #ILC</t>
+  </si>
+  <si>
+    <t>Benarkah kebohongan yang diulang-ulang... #iLc</t>
+  </si>
+  <si>
+    <t>Diracun dengan pujian.. #ILC</t>
+  </si>
+  <si>
+    <t>males nonton, Topik #ILC ga kekinian.</t>
+  </si>
+  <si>
+    <t>Meskipun kebohongan itu lari secepat kilat satu waktu kebenaran akan mengalahkannya #ILC</t>
+  </si>
+  <si>
+    <t>org yg namanya tampang Nabi tp hati Iblis, sesuai dgn pernyataan pengacara Nazarudin #ILC</t>
+  </si>
+  <si>
+    <t>para pejabat sedang sibuk membicarakan "HAK ANGKET", #ILC tv0ne http://fb.me/2RGmoq4cL</t>
+  </si>
+  <si>
+    <t>saya paham bahwa saya gagal paham...  #ILC</t>
+  </si>
+  <si>
+    <t>ngomong segitu panjang, gak dapet maksudnya mau apa... #aneh #ilc</t>
+  </si>
+  <si>
+    <t>Sumpah liat mukanya #FahriHamzah di #ILC pengen gw lempar pake sepatu,, nyebelin bgt</t>
+  </si>
+  <si>
+    <t>Percuma pak. fahri dower itu masih sakit hati sama KPK. #ILC</t>
+  </si>
+  <si>
+    <t>DPR TERUSIK,, KPK DIBIDIK #ILC</t>
+  </si>
+  <si>
+    <t>@ReflyHZ Ajarin dewan ttg hak angket !!! #ILC</t>
+  </si>
+  <si>
+    <t>Saya rakyat, tp saya jg kadang ga seneng lihat cara nya yg superbodi, kok kyknya tebang pilih jg.. #ILC</t>
+  </si>
+  <si>
+    <t>#ILC merajut jakarta kembali setelah tercabik cabik karena kepemimpinan masa lalu</t>
+  </si>
+  <si>
+    <t>@karniilyas maksudnya, cinta akan uang adalah akar kejahatan #ILCTVOne</t>
+  </si>
+  <si>
+    <t>Makin hari makin geram ngeliat tingkah laku dan akhlaq oknum yang mengatasnama kan ISLAM #ILCTVONE</t>
+  </si>
+  <si>
+    <t>Pembohongan publik itu, ketika rambut udah putih beruban tapi di cat hitam #ilctvone</t>
+  </si>
+  <si>
+    <t>#MataNajwa meskipun beda kelas sm #ILCTVOne knp masih bebas tanpa pembatalan, Tanya kenapa?????</t>
+  </si>
+  <si>
+    <t>Nonton ILC tokoh betawi bilang, org betawi itu gampang intinya, "bacot lu jaga.." jadi itulah intinya.. #ilctvone</t>
+  </si>
+  <si>
+    <t>Merajut kembali Jakarta? Gampang kok. "Bacot lu jaga" #ILCTVOne</t>
+  </si>
+  <si>
+    <t>buya safii maarif yg lebih tua kalah bijak dari nasihat bung eep yg jauh lebih muda #ILCtvOne</t>
+  </si>
+  <si>
+    <t>Merampas hak dasar sebagai manusia harus batal demi hukum #ILCTvOne</t>
+  </si>
+  <si>
+    <t>Pihak polisi kasihan jadi terlihat sangat bodoh berhadapan dengan argumentasi hukum dan pakar IT #IlcTvOne</t>
+  </si>
+  <si>
+    <t>itu bapak Abi Manyu kasian.... beliau tidak paham WhatsApp, miris #ilctvone</t>
+  </si>
+  <si>
+    <t>Bintang #ILCtvOne pun muncul #AaGym Tidak ada partai atau tokoh manapun yang sanggup menggerakkan orang http://fb.me/2WDYOkqZU</t>
+  </si>
+  <si>
+    <t>Menghimbau jangan terprovokasi, tp memantik kebencian.. Tidak meneduhkan tp membuat mendung.. #ILCTvOne</t>
+  </si>
+  <si>
+    <t>Tindakan anarkis pada saat aksi bukan oleh pendemo #ILCTvOne #SaveHmI</t>
+  </si>
+  <si>
     <t>ih lucu, mas kick andy nya senyum2 aja</t>
   </si>
   <si>
@@ -571,6 +751,96 @@
     <t>anak itu milik berdua, bukan milik salah satu, bantulah istri mengasuh anak, seperti itu #Gusdur #kickandy</t>
   </si>
   <si>
+    <t>ujian suami adalah saat istri sakit, dan ujian istri adalah saat suami tidak punya apa-apa #kickandy</t>
+  </si>
+  <si>
+    <t>#kickandy Bung Andy cuma mampir dgn gaya remaja sbg idola remaja dan tidak sempat beli</t>
+  </si>
+  <si>
+    <t>Kelemahan Anda hanyalah sementara, karena Anda sedang memperkuatnya, tetapi bila Anda jadi #tekcmi144 #kickandy</t>
+  </si>
+  <si>
+    <t>Kekuatan terbesar yang mampu mengalahkan stress adalah kemampuan memilih pikiran yang tepat. kita akan #hermafik95 #kickandy</t>
+  </si>
+  <si>
+    <t>Itu yg saya kesel. Coba kalo sodara km ngantri ke kanker. Coba km rasain. Kok bs gitu fitnah org. #KickAndy #SuaraHatiAhok</t>
+  </si>
+  <si>
+    <t>Klo pulang ke rumah, mati. Ga ada yg urus. Miskin kok. Kita mw taruh dia di apartemen #KickAndy #SuaraHatiAhok</t>
+  </si>
+  <si>
+    <t>Kalo dia berantem tdk ada telor busuk diketeknya #kickandy #pilkadadki</t>
+  </si>
+  <si>
+    <t>Pak @basuki_btp mukanya sedih banget pas kakak2 angkatnya ngomong. #kickAndy</t>
+  </si>
+  <si>
+    <t>Andy terlihat kaku dan jaga sikap saat mengundang Ahok menjadi tamu. Mungkin agar terlihat lebih formal #kickandy</t>
+  </si>
+  <si>
+    <t>Makin stress makin ngantuk #ahok #kickandy</t>
+  </si>
+  <si>
+    <t>Jangan melihat orang dari cover nya aja, tapi lihat lah dia dari sisi lain nya. Fisik bisa saja sm namun isinya berbeda. #KickAndy</t>
+  </si>
+  <si>
+    <t>kayak gajah yg dibilang psikolog di @Metro_TV #KickAndyMetroTv</t>
+  </si>
+  <si>
+    <t>Jangan di bakarin dong pak andy @KickAndyShow #kickandymetrot</t>
+  </si>
+  <si>
+    <t>bikin sakit perut nonton kisah sarjana tertua di indonesia.. #KickAndyMetroTv</t>
+  </si>
+  <si>
+    <t>Pekerjaan yg tdk sesuai dengan kualifikasi pendidikannya #KickAndyMetroTV</t>
+  </si>
+  <si>
+    <t>Tp ttp tdk msk surga, jd ibadahnya sia2 hahaah RT @melanjhe: sp bilang orang bertato tdk boleh beribadah?!? #kickandymetrotv</t>
+  </si>
+  <si>
+    <t>orang bertato tdk boleh beribadah?!? #kickandymetrotv</t>
+  </si>
+  <si>
+    <t>Apakah kamu bodoh? Tidak!.. Kamu di bodohi oleh suatu sistem Mike-marjinal @kickandymetrotv</t>
+  </si>
+  <si>
+    <t>Gimana soal UN g bs bocor, pertanyaan Malaikat di alam kubur aja udah bocor. #KickAndyMetroTV</t>
+  </si>
+  <si>
+    <t>Masa ada anak lulus dg nilai palingg tinggi dan lulus SNMPTN Undangan bidik misi pdhl dia susah sekali... @SBYudhoyono #kickandymetrotv</t>
+  </si>
+  <si>
+    <t>Orang Belanda aja peduli sama orang2 indonesia yg berada d daerah terisolir, gimana dg pemerintah indonesia? Zhonk kickandyMetroTV</t>
+  </si>
+  <si>
+    <t>Merinding deh nonton #KickAndyMetroTV</t>
+  </si>
+  <si>
+    <t>Indonesia2. Bahkan kita dididik untuk menjadi rusak.. #kickandymetrotv</t>
+  </si>
+  <si>
+    <t>Parahnya kualitas pendidikan di Indonesia  #kickandymetrotv</t>
+  </si>
+  <si>
+    <t>demi apapun ya kick andy sekarang botak?  #kickandymetrotv</t>
+  </si>
+  <si>
+    <t>jadi merasa malu krn kalah dari org yg tdk sempurna tapi mempunyai yg lebih dari org sempurna #kickandymetrotv</t>
+  </si>
+  <si>
+    <t>Hukum di Indonesia masih jauh dari kata ADIL #KickAndyMetroTV</t>
+  </si>
+  <si>
+    <t>aku kira makin tua makin keladi, malah jd macan ompong. Melempem. kecewa liat amin rais di @kickandymetrotv</t>
+  </si>
+  <si>
+    <t>#kickAndyMetroTV MEDIA harus mengisi lebih banyak ttg kisah sukses di TV, bukan gosip, berita rusuh &amp; acara2 GG JELAS, tai kucing!! #CATET</t>
+  </si>
+  <si>
+    <t>#kickAndyMetroTV jika ingin dihargai orang, hargailah orang lain juga</t>
+  </si>
+  <si>
     <t>Setuju. Al misbah, mata najwa dan kick andy program favorit</t>
   </si>
   <si>
@@ -751,10 +1021,100 @@
     <t>fotonya kok @Pak_JK , yg integritasnya tdk jelas. Merusak reputasi Mata Najwa aja</t>
   </si>
   <si>
+    <t>gara2 di bantai teman sendiri sesama anggota DPR di mata najwa lu langsung benci metro TV</t>
+  </si>
+  <si>
+    <t>@Metro_TV Muak melihat kesombongan FZ di acara live Mata Najwa</t>
+  </si>
+  <si>
+    <t>males lihat @Metro_TV biarpun yg datang org nomor satu dunia, ogah. @Metro_TV dan pembawa acara mata najwa sdh dicontreng hitam</t>
+  </si>
+  <si>
+    <t>keseringan masuk @Metro_TV dan bergaul sama mata najwa, engga diapa-apain ngadu2</t>
+  </si>
+  <si>
+    <t>Kan udah bilang di mata najwa metro tv, tanya aja sendiri ke bapak anis, kok fitnah</t>
+  </si>
+  <si>
+    <t>Kenapa MUI tidak mengeluarkan Fatwa Haram Korupsi? Rasanya harus undang jg para petinggi MUI di mata najwa</t>
+  </si>
+  <si>
+    <t>Bravo Mata Najwa.. Debat Pilgub DKI kali ini garing,kalah sama MataNajwa yg mampu menggali lbh dalam #MataNajwa @Metro_TV</t>
+  </si>
+  <si>
+    <t>#BatalDebatKarena Kasihan... pas debat Mata Najwa di metrotv aja Pak Basuki sudah hampir nangis, ga kebayang kemarin debat lagi</t>
+  </si>
+  <si>
+    <t>Setelah acara di mata najwa kasihan Pak Anies jd bulan2an di medsos untuk dihujat #AhokDjarotDiRosi</t>
+  </si>
+  <si>
+    <t>Nyetel metro tv mata najwa debat kemaren Bikin kesel masalah rumah, coba cek skrg msh ada ga itu rumah di webnya</t>
+  </si>
+  <si>
+    <t>waktu awal sandi muncul sbg cawagub di metro tv dlm acara mata najwa, pak sandi sdh berbohong....</t>
+  </si>
+  <si>
+    <t>Ini Kesaksian Mengejutkan Pendukung Anies Yang Merasa Tertipu Di Acara Mata Najwa. MENIPU @Metro_TV @MataNajwa</t>
+  </si>
+  <si>
+    <t>#MataNajwaDebatJakarta  Di kandang Ahok, Metro TV, dan mata Najwa  Mereka bagaikan sampah yg berserakan Anies pilihanku  Pasti</t>
+  </si>
+  <si>
+    <t>Katanya boikot MetroTV tp kok ngintip Mata Najwa</t>
+  </si>
+  <si>
+    <t>Malas lihat Anies, bawa sial aja ini orang, lebih baik lihat Ahok aja di Mata Najwa</t>
+  </si>
+  <si>
+    <t>Nonton Mata Najwa @Metro_TV gw liat Anies ngomong bikin ngantuk #anaktangsel</t>
+  </si>
+  <si>
+    <t>mata najwa  selalu menuduh menjelekan lawan memfonis lawan</t>
+  </si>
+  <si>
+    <t>Liat Mata Najwa @Metro_TV males, diskusi @basuki_btp sama @aniesbaswedan ga imbang.. salah satunya jualan mimpi</t>
+  </si>
+  <si>
+    <t>kayaknya mata Najwa mengadu domba kedua cagub di putaran 2 Pilkada DKI nih...</t>
+  </si>
+  <si>
+    <t>gak mungkin saya di penjara, saksinya aja palsu kok. Kata pak Ahok  #TerbuktiTeruji #MataNajwaMetroTv</t>
+  </si>
+  <si>
+    <t>pak anis pak anis, rekaman 2 thn lalu msh disimpan loh sm metrotv  gak malu ya nelen ludah sendri? #MataNajwaMetroTv</t>
+  </si>
+  <si>
+    <t>Sebagus apapun sistem ketika yang menjalankan orang yg tidak baik. Maka jadilah sistem itu tidak baik pula #matanajwametrotv</t>
+  </si>
+  <si>
+    <t>Ridwan Bae tai  Tampang aja udah ngeselin, ayo mbk nana bully trus si Bae,, #MataNajwaMETROTV</t>
+  </si>
+  <si>
+    <t>Miris liat pengaturan skor di sepakbola indonesia  #matanajwametrotv</t>
+  </si>
+  <si>
+    <t>Dahulu pemuda berperang melawan penjajah, sekarang pemuda melawan kebiasaan buruk yang tak kunjung berubah #matanajwametrotv</t>
+  </si>
+  <si>
+    <t>Pasrah pak ? Haha TAI #MataNajwaMetroTV #SepakBolaMilikSiapa?</t>
+  </si>
+  <si>
+    <t>lo bilang kita2 ga punya kerjan ya, @radityadika #MataNajwaMetroTv</t>
+  </si>
+  <si>
+    <t>PSSI tempat pelacur diri sudah tak punya hati nurani! memalukan @MataNajwaMetroTV</t>
+  </si>
+  <si>
+    <t>#MataNajwaMetroTV jembatan comal masih blm jadi... akibatya padat merayap...</t>
+  </si>
+  <si>
+    <t>Bagaimana penegak MELANGGAR hukum? Kita TIDAK membayar SERAGAM mereka hanya untuk menegakkan HUKUM RIMBA @MataNajwa #MataNajwaMetroTv</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1778,7 +2138,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -1789,7 +2149,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -1800,7 +2160,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
@@ -1811,7 +2171,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -1822,7 +2182,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -1833,7 +2193,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -1844,7 +2204,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
@@ -1855,7 +2215,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
@@ -1866,7 +2226,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
@@ -1877,7 +2237,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -1888,7 +2248,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -1899,7 +2259,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
@@ -1910,7 +2270,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
@@ -1921,7 +2281,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
@@ -1932,7 +2292,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
@@ -1943,7 +2303,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
@@ -1954,7 +2314,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
@@ -1965,7 +2325,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
@@ -1976,7 +2336,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
@@ -1987,7 +2347,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
@@ -1998,7 +2358,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
@@ -2009,7 +2369,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
@@ -2020,7 +2380,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
@@ -2031,7 +2391,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
@@ -2042,7 +2402,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
@@ -2053,7 +2413,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
@@ -2064,7 +2424,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
@@ -2075,7 +2435,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
@@ -2086,7 +2446,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
@@ -2097,7 +2457,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
@@ -2328,7 +2688,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
@@ -2339,7 +2699,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
@@ -2350,7 +2710,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
@@ -2361,7 +2721,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
@@ -2372,7 +2732,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
@@ -2383,7 +2743,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
@@ -2394,7 +2754,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
@@ -2405,7 +2765,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
@@ -2416,7 +2776,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
@@ -2427,7 +2787,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
@@ -2658,7 +3018,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
@@ -2669,7 +3029,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C143" t="s">
         <v>144</v>
@@ -2680,7 +3040,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
         <v>145</v>
@@ -2691,7 +3051,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C145" t="s">
         <v>146</v>
@@ -2702,7 +3062,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
@@ -2713,7 +3073,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
@@ -2724,7 +3084,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
@@ -2735,7 +3095,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
@@ -2746,7 +3106,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
         <v>151</v>
@@ -2757,7 +3117,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C151" t="s">
         <v>152</v>
@@ -2768,7 +3128,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C152" t="s">
         <v>153</v>
@@ -2779,7 +3139,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
@@ -2790,7 +3150,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
@@ -2801,7 +3161,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
         <v>156</v>
@@ -2812,7 +3172,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
@@ -2823,7 +3183,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C157" t="s">
         <v>158</v>
@@ -2834,7 +3194,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
         <v>159</v>
@@ -2845,7 +3205,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C159" t="s">
         <v>160</v>
@@ -2856,7 +3216,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C160" t="s">
         <v>161</v>
@@ -2867,7 +3227,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C161" t="s">
         <v>162</v>
@@ -2878,7 +3238,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
         <v>163</v>
@@ -2889,7 +3249,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C163" t="s">
         <v>164</v>
@@ -2900,7 +3260,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
@@ -2911,7 +3271,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C165" t="s">
         <v>166</v>
@@ -2922,7 +3282,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C166" t="s">
         <v>167</v>
@@ -2933,7 +3293,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C167" t="s">
         <v>168</v>
@@ -2944,7 +3304,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
         <v>169</v>
@@ -2955,7 +3315,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
         <v>170</v>
@@ -2966,7 +3326,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
         <v>171</v>
@@ -2977,7 +3337,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
         <v>172</v>
@@ -3751,6 +4111,1326 @@
       </c>
       <c r="C241" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>52</v>
+      </c>
+      <c r="C242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>52</v>
+      </c>
+      <c r="C244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>52</v>
+      </c>
+      <c r="C245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>52</v>
+      </c>
+      <c r="C246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>52</v>
+      </c>
+      <c r="C248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>52</v>
+      </c>
+      <c r="C249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>52</v>
+      </c>
+      <c r="C250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>52</v>
+      </c>
+      <c r="C252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>52</v>
+      </c>
+      <c r="C253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>52</v>
+      </c>
+      <c r="C254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>52</v>
+      </c>
+      <c r="C255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>52</v>
+      </c>
+      <c r="C256" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>52</v>
+      </c>
+      <c r="C257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>52</v>
+      </c>
+      <c r="C258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>52</v>
+      </c>
+      <c r="C259" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>52</v>
+      </c>
+      <c r="C260" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>52</v>
+      </c>
+      <c r="C261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>52</v>
+      </c>
+      <c r="C262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>52</v>
+      </c>
+      <c r="C263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>52</v>
+      </c>
+      <c r="C264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>52</v>
+      </c>
+      <c r="C265" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>52</v>
+      </c>
+      <c r="C267" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>52</v>
+      </c>
+      <c r="C268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>52</v>
+      </c>
+      <c r="C270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>52</v>
+      </c>
+      <c r="C271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>52</v>
+      </c>
+      <c r="C322" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>52</v>
+      </c>
+      <c r="C323" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>52</v>
+      </c>
+      <c r="C324" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>52</v>
+      </c>
+      <c r="C325" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>52</v>
+      </c>
+      <c r="C326" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>52</v>
+      </c>
+      <c r="C327" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>52</v>
+      </c>
+      <c r="C328" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>52</v>
+      </c>
+      <c r="C329" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>52</v>
+      </c>
+      <c r="C330" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>52</v>
+      </c>
+      <c r="C331" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>52</v>
+      </c>
+      <c r="C332" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>52</v>
+      </c>
+      <c r="C333" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>52</v>
+      </c>
+      <c r="C334" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>52</v>
+      </c>
+      <c r="C335" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>52</v>
+      </c>
+      <c r="C336" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>52</v>
+      </c>
+      <c r="C337" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>52</v>
+      </c>
+      <c r="C338" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>52</v>
+      </c>
+      <c r="C339" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>52</v>
+      </c>
+      <c r="C340" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>52</v>
+      </c>
+      <c r="C341" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>52</v>
+      </c>
+      <c r="C342" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>52</v>
+      </c>
+      <c r="C343" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>52</v>
+      </c>
+      <c r="C344" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>52</v>
+      </c>
+      <c r="C345" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>52</v>
+      </c>
+      <c r="C346" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>52</v>
+      </c>
+      <c r="C347" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>52</v>
+      </c>
+      <c r="C348" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>52</v>
+      </c>
+      <c r="C349" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>52</v>
+      </c>
+      <c r="C350" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>52</v>
+      </c>
+      <c r="C351" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>52</v>
+      </c>
+      <c r="C352" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>52</v>
+      </c>
+      <c r="C353" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>52</v>
+      </c>
+      <c r="C354" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>52</v>
+      </c>
+      <c r="C355" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>52</v>
+      </c>
+      <c r="C356" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>52</v>
+      </c>
+      <c r="C357" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>52</v>
+      </c>
+      <c r="C358" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>52</v>
+      </c>
+      <c r="C359" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>52</v>
+      </c>
+      <c r="C360" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>52</v>
+      </c>
+      <c r="C361" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/datasetTV.xlsx
+++ b/datasetTV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\flaskSkripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\flaskSkripsiFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24801CF0-4FA5-4EE6-B299-311D9BFB3CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA39D9C0-08AC-45A6-90C3-3A5A96B20E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="345">
   <si>
     <t>Id</t>
   </si>
@@ -286,21 +286,6 @@
     <t>ga tau kenapa semua menjadi buruk ketika kau pergi #moreppie #hitamputihT7</t>
   </si>
   <si>
-    <t>#HitamPutihT7 udah sodok ajah bu haha #TributeToWanitaIndonesia</t>
-  </si>
-  <si>
-    <t>butuh ketegasan dari pihak masyarakat dan pemerintah kita butuh tindakan bukan hanya ngoceh di medsos #HitamPutihT7 #PollingHitamPutih</t>
-  </si>
-  <si>
-    <t>hidup itu harus dijalanin bukan dipikirin #hitamputiht7</t>
-  </si>
-  <si>
-    <t>Pemimpin itu adalah pribadi yang dikorbankan #HitamPutihT7</t>
-  </si>
-  <si>
-    <t>Hidup ini dijalanin, bukan dipikirin. Mongol Stres #hitamputiht7</t>
-  </si>
-  <si>
     <t>Suka banget nonton #IndonesiaLawyersClub bisa menambah wawasan, bisa belajar cara membicarakan suatu masalah, keren @ILC_tvOnenews</t>
   </si>
   <si>
@@ -556,21 +541,6 @@
     <t>Merampas hak dasar sebagai manusia harus batal demi hukum #ILCTvOne</t>
   </si>
   <si>
-    <t>Pihak polisi kasihan jadi terlihat sangat bodoh berhadapan dengan argumentasi hukum dan pakar IT #IlcTvOne</t>
-  </si>
-  <si>
-    <t>itu bapak Abi Manyu kasian.... beliau tidak paham WhatsApp, miris #ilctvone</t>
-  </si>
-  <si>
-    <t>Bintang #ILCtvOne pun muncul #AaGym Tidak ada partai atau tokoh manapun yang sanggup menggerakkan orang http://fb.me/2WDYOkqZU</t>
-  </si>
-  <si>
-    <t>Menghimbau jangan terprovokasi, tp memantik kebencian.. Tidak meneduhkan tp membuat mendung.. #ILCTvOne</t>
-  </si>
-  <si>
-    <t>Tindakan anarkis pada saat aksi bukan oleh pendemo #ILCTvOne #SaveHmI</t>
-  </si>
-  <si>
     <t>ih lucu, mas kick andy nya senyum2 aja</t>
   </si>
   <si>
@@ -826,21 +796,6 @@
     <t>demi apapun ya kick andy sekarang botak?  #kickandymetrotv</t>
   </si>
   <si>
-    <t>jadi merasa malu krn kalah dari org yg tdk sempurna tapi mempunyai yg lebih dari org sempurna #kickandymetrotv</t>
-  </si>
-  <si>
-    <t>Hukum di Indonesia masih jauh dari kata ADIL #KickAndyMetroTV</t>
-  </si>
-  <si>
-    <t>aku kira makin tua makin keladi, malah jd macan ompong. Melempem. kecewa liat amin rais di @kickandymetrotv</t>
-  </si>
-  <si>
-    <t>#kickAndyMetroTV MEDIA harus mengisi lebih banyak ttg kisah sukses di TV, bukan gosip, berita rusuh &amp; acara2 GG JELAS, tai kucing!! #CATET</t>
-  </si>
-  <si>
-    <t>#kickAndyMetroTV jika ingin dihargai orang, hargailah orang lain juga</t>
-  </si>
-  <si>
     <t>Setuju. Al misbah, mata najwa dan kick andy program favorit</t>
   </si>
   <si>
@@ -1094,21 +1049,6 @@
   </si>
   <si>
     <t>Dahulu pemuda berperang melawan penjajah, sekarang pemuda melawan kebiasaan buruk yang tak kunjung berubah #matanajwametrotv</t>
-  </si>
-  <si>
-    <t>Pasrah pak ? Haha TAI #MataNajwaMetroTV #SepakBolaMilikSiapa?</t>
-  </si>
-  <si>
-    <t>lo bilang kita2 ga punya kerjan ya, @radityadika #MataNajwaMetroTv</t>
-  </si>
-  <si>
-    <t>PSSI tempat pelacur diri sudah tak punya hati nurani! memalukan @MataNajwaMetroTV</t>
-  </si>
-  <si>
-    <t>#MataNajwaMetroTV jembatan comal masih blm jadi... akibatya padat merayap...</t>
-  </si>
-  <si>
-    <t>Bagaimana penegak MELANGGAR hukum? Kita TIDAK membayar SERAGAM mereka hanya untuk menegakkan HUKUM RIMBA @MataNajwa #MataNajwaMetroTv</t>
   </si>
   <si>
     <t>Text</t>
@@ -1454,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C361"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="76" workbookViewId="0">
+      <selection activeCell="K330" sqref="K330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2413,7 +2353,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
@@ -2424,7 +2364,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
@@ -2435,7 +2375,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
@@ -2446,7 +2386,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
@@ -2457,7 +2397,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
@@ -2963,7 +2903,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
@@ -2974,7 +2914,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
@@ -2985,7 +2925,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
@@ -2996,7 +2936,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
@@ -3007,7 +2947,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C141" t="s">
         <v>142</v>
@@ -3348,7 +3288,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>173</v>
@@ -3359,7 +3299,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>174</v>
@@ -3370,7 +3310,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>175</v>
@@ -3381,7 +3321,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>176</v>
@@ -3392,7 +3332,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
         <v>177</v>
@@ -3403,7 +3343,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>178</v>
@@ -3414,7 +3354,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>179</v>
@@ -3425,7 +3365,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C179" t="s">
         <v>180</v>
@@ -3436,7 +3376,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>181</v>
@@ -3447,7 +3387,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
         <v>182</v>
@@ -3898,7 +3838,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C222" t="s">
         <v>223</v>
@@ -3909,7 +3849,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C223" t="s">
         <v>224</v>
@@ -3920,7 +3860,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C224" t="s">
         <v>225</v>
@@ -3931,7 +3871,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C225" t="s">
         <v>226</v>
@@ -3942,7 +3882,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C226" t="s">
         <v>227</v>
@@ -3953,7 +3893,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C227" t="s">
         <v>228</v>
@@ -3964,7 +3904,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C228" t="s">
         <v>229</v>
@@ -3975,7 +3915,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C229" t="s">
         <v>230</v>
@@ -3986,7 +3926,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C230" t="s">
         <v>231</v>
@@ -3997,7 +3937,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C231" t="s">
         <v>232</v>
@@ -4283,7 +4223,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>258</v>
@@ -4294,7 +4234,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>259</v>
@@ -4305,7 +4245,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>260</v>
@@ -4316,7 +4256,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>261</v>
@@ -4327,7 +4267,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>262</v>
@@ -4338,7 +4278,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>263</v>
@@ -4349,7 +4289,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>264</v>
@@ -4360,7 +4300,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>265</v>
@@ -4371,7 +4311,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
         <v>266</v>
@@ -4382,7 +4322,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
         <v>267</v>
@@ -4393,7 +4333,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
         <v>268</v>
@@ -4404,7 +4344,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C268" t="s">
         <v>269</v>
@@ -4415,7 +4355,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C269" t="s">
         <v>270</v>
@@ -4426,7 +4366,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C270" t="s">
         <v>271</v>
@@ -4437,7 +4377,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C271" t="s">
         <v>272</v>
@@ -4833,7 +4773,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C307" t="s">
         <v>308</v>
@@ -4844,7 +4784,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C308" t="s">
         <v>309</v>
@@ -4855,7 +4795,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C309" t="s">
         <v>310</v>
@@ -4866,7 +4806,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C310" t="s">
         <v>311</v>
@@ -4877,7 +4817,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C311" t="s">
         <v>312</v>
@@ -4888,7 +4828,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C312" t="s">
         <v>313</v>
@@ -4899,7 +4839,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C313" t="s">
         <v>314</v>
@@ -4910,7 +4850,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C314" t="s">
         <v>315</v>
@@ -4921,7 +4861,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C315" t="s">
         <v>316</v>
@@ -4932,7 +4872,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C316" t="s">
         <v>317</v>
@@ -4943,7 +4883,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C317" t="s">
         <v>318</v>
@@ -4954,7 +4894,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C318" t="s">
         <v>319</v>
@@ -4965,7 +4905,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C319" t="s">
         <v>320</v>
@@ -4976,7 +4916,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C320" t="s">
         <v>321</v>
@@ -4987,7 +4927,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C321" t="s">
         <v>322</v>
@@ -5211,226 +5151,6 @@
       </c>
       <c r="C341" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342">
-        <v>341</v>
-      </c>
-      <c r="B342" t="s">
-        <v>52</v>
-      </c>
-      <c r="C342" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343">
-        <v>342</v>
-      </c>
-      <c r="B343" t="s">
-        <v>52</v>
-      </c>
-      <c r="C343" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344">
-        <v>343</v>
-      </c>
-      <c r="B344" t="s">
-        <v>52</v>
-      </c>
-      <c r="C344" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345">
-        <v>344</v>
-      </c>
-      <c r="B345" t="s">
-        <v>52</v>
-      </c>
-      <c r="C345" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346">
-        <v>345</v>
-      </c>
-      <c r="B346" t="s">
-        <v>52</v>
-      </c>
-      <c r="C346" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347">
-        <v>346</v>
-      </c>
-      <c r="B347" t="s">
-        <v>52</v>
-      </c>
-      <c r="C347" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348">
-        <v>347</v>
-      </c>
-      <c r="B348" t="s">
-        <v>52</v>
-      </c>
-      <c r="C348" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349">
-        <v>348</v>
-      </c>
-      <c r="B349" t="s">
-        <v>52</v>
-      </c>
-      <c r="C349" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350">
-        <v>349</v>
-      </c>
-      <c r="B350" t="s">
-        <v>52</v>
-      </c>
-      <c r="C350" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351">
-        <v>350</v>
-      </c>
-      <c r="B351" t="s">
-        <v>52</v>
-      </c>
-      <c r="C351" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352">
-        <v>351</v>
-      </c>
-      <c r="B352" t="s">
-        <v>52</v>
-      </c>
-      <c r="C352" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353">
-        <v>352</v>
-      </c>
-      <c r="B353" t="s">
-        <v>52</v>
-      </c>
-      <c r="C353" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354">
-        <v>353</v>
-      </c>
-      <c r="B354" t="s">
-        <v>52</v>
-      </c>
-      <c r="C354" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355">
-        <v>354</v>
-      </c>
-      <c r="B355" t="s">
-        <v>52</v>
-      </c>
-      <c r="C355" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356">
-        <v>355</v>
-      </c>
-      <c r="B356" t="s">
-        <v>52</v>
-      </c>
-      <c r="C356" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>356</v>
-      </c>
-      <c r="B357" t="s">
-        <v>52</v>
-      </c>
-      <c r="C357" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>357</v>
-      </c>
-      <c r="B358" t="s">
-        <v>52</v>
-      </c>
-      <c r="C358" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>358</v>
-      </c>
-      <c r="B359" t="s">
-        <v>52</v>
-      </c>
-      <c r="C359" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>359</v>
-      </c>
-      <c r="B360" t="s">
-        <v>52</v>
-      </c>
-      <c r="C360" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361">
-        <v>360</v>
-      </c>
-      <c r="B361" t="s">
-        <v>52</v>
-      </c>
-      <c r="C361" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
